--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>ID HISTORIA</t>
   </si>
@@ -75,6 +72,159 @@
   </si>
   <si>
     <t>Como un Amigo Académico, necesito listar los cursos vigentes, para…</t>
+  </si>
+  <si>
+    <t>Como un Estudiante, quiero ver la agenda de los Amigos Académicos, con la finalidad de observar los horarios en los que puedo asistir a  las asesorias.</t>
+  </si>
+  <si>
+    <t>Como un Estudiante, quiero ver los temas que se trabajaran en la semana, para identificar en cuales temas necesito un refuerzo</t>
+  </si>
+  <si>
+    <t>Como un Amigo Acedmico, quiero registrar una asesoria, con la finalidad de llevar un registro de los temas tratados en la asesoria.</t>
+  </si>
+  <si>
+    <t>Como Estudiante, quiero otorgarle una calificación a la asesoria, para brindar una opinion sobre el servicio que me fue prestado.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, quiero ver las estadisticas de las asesorias por Materia, para poder establecer planes de refuerzo en estas.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, quiero ver las estadisticas de  asistencia de los estudiantes, para poder medir el nivel de aceptación del programa por parte de los Estudiantes.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito ver los registros de las asesorias, con el fin de establecer planes de refuerzo de acuerdo a las necesidades reflejadas en las asesorias.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, quiero ver las comparativas de las estadisticas a traves de los semestres, para poder establecer acciones de mejoramiento en el Plan de Trabajo.</t>
+  </si>
+  <si>
+    <t>Como un Estudiante, quiero ser informado de los cursos que se impartiran, para poder asistir a ellos.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito administrar los temas que se trabajarán en la semana, para brindarle a los estudiantes una idea de las tematicas a reforzar.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito comunicarme con los Amigos Academicos, para…</t>
+  </si>
+  <si>
+    <t>Como un Amigo Academico, necesito comunicarme con el Administrador, para…</t>
+  </si>
+  <si>
+    <t>Como un Administrador, quiero ver las estadisticas de asistencia a los cursos, para poder identificar…</t>
+  </si>
+  <si>
+    <t>Como un Amigo Académico, necesito registrar la asistencia de los Estudiantes a un curso, para llevar un control del trabajo realizado.</t>
+  </si>
+  <si>
+    <t>Como un Amigo Académico, necesito ser notificado cuando se me asigna un curso, para preparar la temática asociada.</t>
+  </si>
+  <si>
+    <t>MOVIL</t>
+  </si>
+  <si>
+    <t>PLATAFORMA WEB</t>
+  </si>
+  <si>
+    <t>Como un Administrador, quiero instalar la aplicación en mi Smartphone, para poder acceder a las funcionalidades de la aplicación.</t>
+  </si>
+  <si>
+    <t>Como un Amigo Academico, quiero instalar la aplicación en mi Smartphone, para poder acceder a las funcionalidades de la aplicación.</t>
+  </si>
+  <si>
+    <t>Como un Estudiante, quiero instalar la aplicación en mi Smartphone, para poder acceder a las funcionalidades de la aplicación.</t>
+  </si>
+  <si>
+    <t>Como un Estudiante, quiero recibir notificaciones de los nuevos cursos, para poder asistir a ellos.</t>
+  </si>
+  <si>
+    <t>Como un Amigo Academico, quiero recibir notificaciones cuando se me asigne un nuevo curso, para poder preparar el tema relacionado con el curso.</t>
+  </si>
+  <si>
+    <t>Como un Estudiante, necesito ver la agenda de los Amigos Académicos, para determinar a que horas puedo asistir a las asesorias.</t>
+  </si>
+  <si>
+    <t>VACÍO</t>
+  </si>
+  <si>
+    <t>INICIO DE SESIÓN</t>
+  </si>
+  <si>
+    <t>GESTIÓN AA</t>
+  </si>
+  <si>
+    <t>GESTIÓN CURSOS</t>
+  </si>
+  <si>
+    <t>VISUALIZAR CURSOS</t>
+  </si>
+  <si>
+    <t>VISUALIZAR AGENDA - AA</t>
+  </si>
+  <si>
+    <t>VISUALIZAR AGENDA - ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>VISUALIZAR TEMAS</t>
+  </si>
+  <si>
+    <t>REGISTRAR ASESORIAS</t>
+  </si>
+  <si>
+    <t>CALIFICAR ASESORIAS</t>
+  </si>
+  <si>
+    <t>ESTADISTICAS POR MATERIA</t>
+  </si>
+  <si>
+    <t>ESTADISTICAS POR ASISTENCIA</t>
+  </si>
+  <si>
+    <t>VISUALIZAR ASESORIAS</t>
+  </si>
+  <si>
+    <t>ESTADISTICAS POR SEMESTRE</t>
+  </si>
+  <si>
+    <t>NOTIFICAR CURSOS - ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GESTIÓN TEMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAT </t>
+  </si>
+  <si>
+    <t>ESTADISTICAS CURSOS</t>
+  </si>
+  <si>
+    <t>REGISTRO ASISTENCIA CURSOS</t>
+  </si>
+  <si>
+    <t>NOTIFICAR CURSOS - AA</t>
+  </si>
+  <si>
+    <t>INSTALAR APP</t>
+  </si>
+  <si>
+    <t>M: NOTIFICAR CURSOS - ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>M: NOTIFICAR CURSOS - AA</t>
+  </si>
+  <si>
+    <t>M: VISUALIZAR AGENDA - ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>M: CHAT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PLANIFICADA</t>
+  </si>
+  <si>
+    <t>EN PROCESO</t>
   </si>
 </sst>
 </file>
@@ -105,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +268,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,11 +283,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -142,17 +313,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,19 +352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,241 +636,788 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>200</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>200</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>200</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="5">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>90</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>120</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>180</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>70</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>140</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>60</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>220</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>210</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>150</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>160</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>170</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>100</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>130</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>40</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="5">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5">
+        <v>30</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="F26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="5">
+        <v>30</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>190</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>120</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>140</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>70</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>70</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="B33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="5">
+        <v>6</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>70</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="B34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>50</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="B36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="B37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="5">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="5">
+        <v>20</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>30</v>
       </c>
+      <c r="B38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="5">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="5">
+        <v>20</v>
+      </c>
+      <c r="H38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="1.0208333333333333" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
